--- a/salidas/predicción.xlsx
+++ b/salidas/predicción.xlsx
@@ -1,37 +1,66 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/aee4b729a82685c6/Desktop/Analitica lll RH/salidas/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="7" documentId="11_496D1D47017F9C0E62355476585F0EBEA31D86AE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C413FF97-05BE-44E3-8D12-BC5939C61FF2}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>EnvironmentSatisfaction</t>
+  </si>
+  <si>
+    <t>JobSatisfaction</t>
+  </si>
+  <si>
+    <t>MonthlyIncome</t>
+  </si>
+  <si>
+    <t>YearsAtCompany</t>
+  </si>
+  <si>
+    <t>pred_2017</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +75,44 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,270 +400,258 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:K7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B2:L8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="21.88671875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="n">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B2" s="2"/>
+      <c r="C2" s="1">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="n">
+      <c r="D2" s="1">
         <v>2821</v>
       </c>
-      <c r="D1" s="1" t="n">
+      <c r="E2" s="1">
         <v>2822</v>
       </c>
-      <c r="E1" s="1" t="n">
+      <c r="F2" s="1">
         <v>2823</v>
       </c>
-      <c r="F1" s="1" t="n">
+      <c r="G2" s="1">
         <v>2824</v>
       </c>
-      <c r="G1" s="1" t="n">
+      <c r="H2" s="1">
         <v>2825</v>
       </c>
-      <c r="H1" s="1" t="n">
+      <c r="I2" s="1">
         <v>2826</v>
       </c>
-      <c r="I1" s="1" t="n">
+      <c r="J2" s="1">
         <v>2827</v>
       </c>
-      <c r="J1" s="1" t="n">
+      <c r="K2" s="1">
         <v>2828</v>
       </c>
-      <c r="K1" s="1" t="n">
+      <c r="L2" s="1">
         <v>2829</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>1.566822344426965</v>
-      </c>
-      <c r="C2" t="n">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1.5668223444269651</v>
+      </c>
+      <c r="D3" s="2">
         <v>-1.31471307261776</v>
       </c>
-      <c r="D2" t="n">
-        <v>-0.7605716462630054</v>
-      </c>
-      <c r="E2" t="n">
-        <v>-0.5389150757211035</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.9018526328012592</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.1260546359046023</v>
-      </c>
-      <c r="H2" t="n">
-        <v>-0.7605716462630054</v>
-      </c>
-      <c r="I2" t="n">
-        <v>-0.5389150757211035</v>
-      </c>
-      <c r="J2" t="n">
-        <v>-0.7605716462630054</v>
-      </c>
-      <c r="K2" t="n">
-        <v>-0.7605716462630054</v>
+      <c r="E3" s="2">
+        <v>-0.76057164626300544</v>
+      </c>
+      <c r="F3" s="2">
+        <v>-0.53891507572110353</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0.90185263280125916</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0.12605463590460231</v>
+      </c>
+      <c r="I3" s="2">
+        <v>-0.76057164626300544</v>
+      </c>
+      <c r="J3" s="2">
+        <v>-0.53891507572110353</v>
+      </c>
+      <c r="K3" s="2">
+        <v>-0.76057164626300544</v>
+      </c>
+      <c r="L3" s="2">
+        <v>-0.76057164626300544</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>EnvironmentSatisfaction</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0.2471397297026237</v>
-      </c>
-      <c r="C3" t="n">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.24713972970262371</v>
+      </c>
+      <c r="D4" s="2">
         <v>-1.593698810122103</v>
       </c>
-      <c r="D3" t="n">
-        <v>0.2471397297026237</v>
-      </c>
-      <c r="E3" t="n">
+      <c r="E4" s="2">
+        <v>0.24713972970262371</v>
+      </c>
+      <c r="F4" s="2">
         <v>-1.593698810122103</v>
       </c>
-      <c r="F3" t="n">
-        <v>0.2471397297026237</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1.167558999614987</v>
-      </c>
-      <c r="H3" t="n">
+      <c r="G4" s="2">
+        <v>0.24713972970262371</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1.1675589996149871</v>
+      </c>
+      <c r="I4" s="2">
         <v>-1.593698810122103</v>
       </c>
-      <c r="I3" t="n">
-        <v>1.167558999614987</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1.167558999614987</v>
-      </c>
-      <c r="K3" t="n">
+      <c r="J4" s="2">
+        <v>1.1675589996149871</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1.1675589996149871</v>
+      </c>
+      <c r="L4" s="2">
         <v>-0.6732795402097399</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>JobSatisfaction</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>1.15474718439647</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.2430935351541854</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.15474718439647</v>
-      </c>
-      <c r="E4" t="n">
-        <v>-1.580213763330384</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1.15474718439647</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.2430935351541854</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.2430935351541854</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1.15474718439647</v>
-      </c>
-      <c r="J4" t="n">
-        <v>-1.580213763330384</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1.15474718439647</v>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1.1547471843964701</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.24309353515418539</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1.1547471843964701</v>
+      </c>
+      <c r="F5" s="2">
+        <v>-1.5802137633303841</v>
+      </c>
+      <c r="G5" s="2">
+        <v>1.1547471843964701</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0.24309353515418539</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0.24309353515418539</v>
+      </c>
+      <c r="J5" s="2">
+        <v>1.1547471843964701</v>
+      </c>
+      <c r="K5" s="2">
+        <v>-1.5802137633303841</v>
+      </c>
+      <c r="L5" s="2">
+        <v>1.1547471843964701</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>MonthlyIncome</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2">
         <v>1.389076123939968</v>
       </c>
-      <c r="C5" t="n">
-        <v>-0.7349541778840187</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.8222875065228182</v>
-      </c>
-      <c r="E5" t="n">
-        <v>-0.506843428837728</v>
-      </c>
-      <c r="F5" t="n">
-        <v>-0.1643601911593306</v>
-      </c>
-      <c r="G5" t="n">
-        <v>-0.3178434198966865</v>
-      </c>
-      <c r="H5" t="n">
-        <v>-0.163937372347382</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.2559217079176165</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.7950156931521311</v>
-      </c>
-      <c r="K5" t="n">
-        <v>-0.5516622229042838</v>
+      <c r="D6" s="2">
+        <v>-0.73495417788401873</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.82228750652281823</v>
+      </c>
+      <c r="F6" s="2">
+        <v>-0.50684342883772804</v>
+      </c>
+      <c r="G6" s="2">
+        <v>-0.16436019115933059</v>
+      </c>
+      <c r="H6" s="2">
+        <v>-0.31784341989668652</v>
+      </c>
+      <c r="I6" s="2">
+        <v>-0.16393737234738201</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0.25592170791761648</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0.79501569315213105</v>
+      </c>
+      <c r="L6" s="2">
+        <v>-0.55166222290428379</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>YearsAtCompany</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>-1.039489128951434</v>
-      </c>
-      <c r="C6" t="n">
-        <v>-0.8606089909062373</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.7493122515005345</v>
-      </c>
-      <c r="E6" t="n">
-        <v>-0.3239685767706467</v>
-      </c>
-      <c r="F6" t="n">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="2">
+        <v>-1.0394891289514341</v>
+      </c>
+      <c r="D7" s="2">
+        <v>-0.86060899090623733</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.74931225150053449</v>
+      </c>
+      <c r="F7" s="2">
+        <v>-0.32396857677064672</v>
+      </c>
+      <c r="G7" s="2">
         <v>-0.1450884387254498</v>
       </c>
-      <c r="G6" t="n">
-        <v>-0.6817288528610405</v>
-      </c>
-      <c r="H6" t="n">
-        <v>-0.3239685767706467</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.2126718373649439</v>
-      </c>
-      <c r="J6" t="n">
-        <v>-0.6817288528610405</v>
-      </c>
-      <c r="K6" t="n">
-        <v>-0.3239685767706467</v>
+      <c r="H7" s="2">
+        <v>-0.68172885286104046</v>
+      </c>
+      <c r="I7" s="2">
+        <v>-0.32396857677064672</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0.21267183736494391</v>
+      </c>
+      <c r="K7" s="2">
+        <v>-0.68172885286104046</v>
+      </c>
+      <c r="L7" s="2">
+        <v>-0.32396857677064672</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>pred_2017</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>0</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0</v>
+      </c>
+      <c r="L8" s="2">
         <v>0</v>
       </c>
     </row>

--- a/salidas/predicción.xlsx
+++ b/salidas/predicción.xlsx
@@ -1,66 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/aee4b729a82685c6/Desktop/Analitica lll RH/salidas/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="11_496D1D47017F9C0E62355476585F0EBEA31D86AE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C413FF97-05BE-44E3-8D12-BC5939C61FF2}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>Age</t>
-  </si>
-  <si>
-    <t>EnvironmentSatisfaction</t>
-  </si>
-  <si>
-    <t>JobSatisfaction</t>
-  </si>
-  <si>
-    <t>MonthlyIncome</t>
-  </si>
-  <si>
-    <t>YearsAtCompany</t>
-  </si>
-  <si>
-    <t>pred_2017</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -75,44 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -400,258 +420,270 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:L8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="P20" sqref="P20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="21.88671875" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B2" s="2"/>
-      <c r="C2" s="1">
+    <row r="1">
+      <c r="B1" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D2" s="1">
+      <c r="C1" s="1" t="n">
         <v>2821</v>
       </c>
-      <c r="E2" s="1">
+      <c r="D1" s="1" t="n">
         <v>2822</v>
       </c>
-      <c r="F2" s="1">
+      <c r="E1" s="1" t="n">
         <v>2823</v>
       </c>
-      <c r="G2" s="1">
+      <c r="F1" s="1" t="n">
         <v>2824</v>
       </c>
-      <c r="H2" s="1">
+      <c r="G1" s="1" t="n">
         <v>2825</v>
       </c>
-      <c r="I2" s="1">
+      <c r="H1" s="1" t="n">
         <v>2826</v>
       </c>
-      <c r="J2" s="1">
+      <c r="I1" s="1" t="n">
         <v>2827</v>
       </c>
-      <c r="K2" s="1">
+      <c r="J1" s="1" t="n">
         <v>2828</v>
       </c>
-      <c r="L2" s="1">
+      <c r="K1" s="1" t="n">
         <v>2829</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2">
-        <v>1.5668223444269651</v>
-      </c>
-      <c r="D3" s="2">
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1.566822344426965</v>
+      </c>
+      <c r="C2" t="n">
         <v>-1.31471307261776</v>
       </c>
-      <c r="E3" s="2">
-        <v>-0.76057164626300544</v>
-      </c>
-      <c r="F3" s="2">
-        <v>-0.53891507572110353</v>
-      </c>
-      <c r="G3" s="2">
-        <v>0.90185263280125916</v>
-      </c>
-      <c r="H3" s="2">
-        <v>0.12605463590460231</v>
-      </c>
-      <c r="I3" s="2">
-        <v>-0.76057164626300544</v>
-      </c>
-      <c r="J3" s="2">
-        <v>-0.53891507572110353</v>
-      </c>
-      <c r="K3" s="2">
-        <v>-0.76057164626300544</v>
-      </c>
-      <c r="L3" s="2">
-        <v>-0.76057164626300544</v>
+      <c r="D2" t="n">
+        <v>-0.7605716462630054</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-0.5389150757211035</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.9018526328012592</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.1260546359046023</v>
+      </c>
+      <c r="H2" t="n">
+        <v>-0.7605716462630054</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-0.5389150757211035</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-0.7605716462630054</v>
+      </c>
+      <c r="K2" t="n">
+        <v>-0.7605716462630054</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0.24713972970262371</v>
-      </c>
-      <c r="D4" s="2">
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>EnvironmentSatisfaction</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.2471397297026237</v>
+      </c>
+      <c r="C3" t="n">
         <v>-1.593698810122103</v>
       </c>
-      <c r="E4" s="2">
-        <v>0.24713972970262371</v>
-      </c>
-      <c r="F4" s="2">
+      <c r="D3" t="n">
+        <v>0.2471397297026237</v>
+      </c>
+      <c r="E3" t="n">
         <v>-1.593698810122103</v>
       </c>
-      <c r="G4" s="2">
-        <v>0.24713972970262371</v>
-      </c>
-      <c r="H4" s="2">
-        <v>1.1675589996149871</v>
-      </c>
-      <c r="I4" s="2">
+      <c r="F3" t="n">
+        <v>0.2471397297026237</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1.167558999614987</v>
+      </c>
+      <c r="H3" t="n">
         <v>-1.593698810122103</v>
       </c>
-      <c r="J4" s="2">
-        <v>1.1675589996149871</v>
-      </c>
-      <c r="K4" s="2">
-        <v>1.1675589996149871</v>
-      </c>
-      <c r="L4" s="2">
+      <c r="I3" t="n">
+        <v>1.167558999614987</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1.167558999614987</v>
+      </c>
+      <c r="K3" t="n">
         <v>-0.6732795402097399</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="2">
-        <v>1.1547471843964701</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0.24309353515418539</v>
-      </c>
-      <c r="E5" s="2">
-        <v>1.1547471843964701</v>
-      </c>
-      <c r="F5" s="2">
-        <v>-1.5802137633303841</v>
-      </c>
-      <c r="G5" s="2">
-        <v>1.1547471843964701</v>
-      </c>
-      <c r="H5" s="2">
-        <v>0.24309353515418539</v>
-      </c>
-      <c r="I5" s="2">
-        <v>0.24309353515418539</v>
-      </c>
-      <c r="J5" s="2">
-        <v>1.1547471843964701</v>
-      </c>
-      <c r="K5" s="2">
-        <v>-1.5802137633303841</v>
-      </c>
-      <c r="L5" s="2">
-        <v>1.1547471843964701</v>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>JobSatisfaction</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1.15474718439647</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.2430935351541854</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.15474718439647</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-1.580213763330384</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1.15474718439647</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.2430935351541854</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.2430935351541854</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1.15474718439647</v>
+      </c>
+      <c r="J4" t="n">
+        <v>-1.580213763330384</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1.15474718439647</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="2">
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>MonthlyIncome</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
         <v>1.389076123939968</v>
       </c>
-      <c r="D6" s="2">
-        <v>-0.73495417788401873</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0.82228750652281823</v>
-      </c>
-      <c r="F6" s="2">
-        <v>-0.50684342883772804</v>
-      </c>
-      <c r="G6" s="2">
-        <v>-0.16436019115933059</v>
-      </c>
-      <c r="H6" s="2">
-        <v>-0.31784341989668652</v>
-      </c>
-      <c r="I6" s="2">
-        <v>-0.16393737234738201</v>
-      </c>
-      <c r="J6" s="2">
-        <v>0.25592170791761648</v>
-      </c>
-      <c r="K6" s="2">
-        <v>0.79501569315213105</v>
-      </c>
-      <c r="L6" s="2">
-        <v>-0.55166222290428379</v>
+      <c r="C5" t="n">
+        <v>-0.7349541778840187</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8222875065228182</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-0.506843428837728</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-0.1643601911593306</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-0.3178434198966865</v>
+      </c>
+      <c r="H5" t="n">
+        <v>-0.163937372347382</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.2559217079176165</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.7950156931521311</v>
+      </c>
+      <c r="K5" t="n">
+        <v>-0.5516622229042838</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="2">
-        <v>-1.0394891289514341</v>
-      </c>
-      <c r="D7" s="2">
-        <v>-0.86060899090623733</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0.74931225150053449</v>
-      </c>
-      <c r="F7" s="2">
-        <v>-0.32396857677064672</v>
-      </c>
-      <c r="G7" s="2">
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>YearsAtCompany</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>-1.039489128951434</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-0.8606089909062373</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.7493122515005345</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-0.3239685767706467</v>
+      </c>
+      <c r="F6" t="n">
         <v>-0.1450884387254498</v>
       </c>
-      <c r="H7" s="2">
-        <v>-0.68172885286104046</v>
-      </c>
-      <c r="I7" s="2">
-        <v>-0.32396857677064672</v>
-      </c>
-      <c r="J7" s="2">
-        <v>0.21267183736494391</v>
-      </c>
-      <c r="K7" s="2">
-        <v>-0.68172885286104046</v>
-      </c>
-      <c r="L7" s="2">
-        <v>-0.32396857677064672</v>
+      <c r="G6" t="n">
+        <v>-0.6817288528610405</v>
+      </c>
+      <c r="H6" t="n">
+        <v>-0.3239685767706467</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.2126718373649439</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-0.6817288528610405</v>
+      </c>
+      <c r="K6" t="n">
+        <v>-0.3239685767706467</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0</v>
-      </c>
-      <c r="E8" s="2">
-        <v>0</v>
-      </c>
-      <c r="F8" s="2">
-        <v>0</v>
-      </c>
-      <c r="G8" s="2">
-        <v>0</v>
-      </c>
-      <c r="H8" s="2">
-        <v>0</v>
-      </c>
-      <c r="I8" s="2">
-        <v>0</v>
-      </c>
-      <c r="J8" s="2">
-        <v>0</v>
-      </c>
-      <c r="K8" s="2">
-        <v>0</v>
-      </c>
-      <c r="L8" s="2">
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>pred_2017</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
         <v>0</v>
       </c>
     </row>
